--- a/project.xlsx
+++ b/project.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="2120" windowWidth="21280" windowHeight="13420" tabRatio="500"/>
+    <workbookView xWindow="14540" yWindow="1740" windowWidth="21280" windowHeight="13420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Project Name</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>VK</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>Sudoku Generator and Solver (with GUI)</t>
   </si>
 </sst>
 </file>
@@ -176,7 +182,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -222,6 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -505,7 +512,7 @@
   <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,9 +542,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="15"/>
+      <c r="D3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">

--- a/project.xlsx
+++ b/project.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Project Name</t>
   </si>
@@ -65,9 +65,6 @@
     <t>HTTPD</t>
   </si>
   <si>
-    <t>A Simple QUICK Server</t>
-  </si>
-  <si>
     <t>A Simple HTTP Server</t>
   </si>
   <si>
@@ -90,6 +87,30 @@
   </si>
   <si>
     <t>Sudoku Generator and Solver (with GUI)</t>
+  </si>
+  <si>
+    <t>WW</t>
+  </si>
+  <si>
+    <t>A Simple QUIC Server</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>OY</t>
+  </si>
+  <si>
+    <t>Graph Lirabry</t>
+  </si>
+  <si>
+    <t>A Functional Library of foundamental Graph algorithms. Shortest path, spanning three, etc.</t>
+  </si>
+  <si>
+    <t>Scientific Calculator</t>
+  </si>
+  <si>
+    <t>Implement the REPL for a scientific calculator that evaluates expressions including basic aritmetic operations along with exponentiation, logs, inversion, etc.</t>
   </si>
 </sst>
 </file>
@@ -512,14 +533,15 @@
   <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="9" customWidth="1"/>
     <col min="3" max="3" width="0.83203125" customWidth="1"/>
-    <col min="4" max="4" width="36.83203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="50.1640625" style="14" customWidth="1"/>
     <col min="5" max="5" width="0.83203125" customWidth="1"/>
     <col min="6" max="6" width="16" style="9" customWidth="1"/>
   </cols>
@@ -543,11 +565,11 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="32" x14ac:dyDescent="0.2">
@@ -570,7 +592,9 @@
         <v>7</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="15"/>
+      <c r="F5" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
@@ -589,7 +613,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="13" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="15"/>
@@ -600,46 +624,58 @@
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="15"/>
+      <c r="F9" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="6"/>
+      <c r="F10" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="8"/>
+    <row r="12" spans="2:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="12"/>
+      <c r="D12" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="8"/>
     </row>
